--- a/biology/Botanique/Callichlamys_latifolia/Callichlamys_latifolia.xlsx
+++ b/biology/Botanique/Callichlamys_latifolia/Callichlamys_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callichlamys
 Calliclamys latifolia, unique représentant du genre Callichlamys, est une espèce de lianes de la famille des Bignoniaceae, originaire des régions tropicales du Mexique jusqu'au Brésil.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Touffe de poils dendroides trouvés sur la face inférieure des feuilles, feuilles et corolles larges, ainsi que les capsules; et une écorce lisse de couleur grise[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Touffe de poils dendroides trouvés sur la face inférieure des feuilles, feuilles et corolles larges, ainsi que les capsules; et une écorce lisse de couleur grise,.
 Calliclamys se présente sous forme de lianes grimpantes; tiges avec 4 canaux de phloème en coupe transversale; rameaux cylindriques, glabres, couverts de lenticelles, à crête interpétiolaire discontinue. Feuilles à deux ou trois folioles, foliole terminale souvent remplacée par une simple vrille ; folioles coriaces (env. 30 × 20 cm), avec des glandes peu réparties sur le limbe. Inflorescence, racème axillaire ou terminal, en grappe. Calice en forme de spathe, 2-6 cm de long x 1-4 cm de large, épais, spongieux, pubérulent, avec des glandes clairsemées ; corolle jaune vif et parfois rougeâtre sur la face interne, tubulaire (5,5 × 11 cm de long), infundibuliforme (en forme d’entonnoir), droite, coriace, pubérulente ; quatre étamines, avec filaments inclus, anthères glabres, fibres droites, pollen en monades, à éxine réticulée ; ovaire sessile, lisse, glabre, ovules en plusieurs séries sur chaque placenta, stigmates lancéolés, glabres ; disque annulaire. Les fruits sont des capsules elliptiques (22-32 cm de long x 6-12 cm de large), aplaties ellipsoïdes, droites, ligneuses, à deux valves, glabres, sans lenticelles, à glandes éparses, sans ailes, lisses, à calice caduc ; graines ailées, au corps lisse et glabre, ailes opaques, linéaires. 
 La floraison a lieu de février à octobre (saison humide), et la fructification de janvier à mars (saison sèche).
 </t>
@@ -545,11 +559,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre particulier de la famille des Bignoniaceae est décrit pour la première fois par Miquel en 1844. L'espèce C. latifolia a été décrite par le botaniste L.C. Richard, puis par K.M. Schumann qui publia dans Die Natürlichen Pflanzenfamilien 4(3b): 223, 1894.
-Selon ThePlantList Calliclamys latifolia a trois synonymes acceptés : Calliclamys garnieri Standl &amp; L.O. Williams ; Calliclamys peckoltii Bureau ex K. Schum. et Calliclamys rufinervis (Hoffmanns ex DC) Miers. Elle peut être parfois confondue avec certaines espèces des genres voisins comme Bignonia ou Tabebuia[3].
-Cette espèce, largement répartie dans les régions tropicales américaines, est appelée en langue vernaculaire « alapargate » (Tolima), « verhero » (Boyaca), ou « cotatano » (Andoque)[4]. En Guyane française, les Wayapi la connaissent sous le nom de « kalasapau poã »[5], qui signifie littéralement « ulcère de leishmaniose ; remède ».
+Selon ThePlantList Calliclamys latifolia a trois synonymes acceptés : Calliclamys garnieri Standl &amp; L.O. Williams ; Calliclamys peckoltii Bureau ex K. Schum. et Calliclamys rufinervis (Hoffmanns ex DC) Miers. Elle peut être parfois confondue avec certaines espèces des genres voisins comme Bignonia ou Tabebuia.
+Cette espèce, largement répartie dans les régions tropicales américaines, est appelée en langue vernaculaire « alapargate » (Tolima), « verhero » (Boyaca), ou « cotatano » (Andoque). En Guyane française, les Wayapi la connaissent sous le nom de « kalasapau poã », qui signifie littéralement « ulcère de leishmaniose ; remède ».
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calliclamys est une liane de la végétation ripicole et de la forêt primaire, rencontrée à faible altitude, de 100 à 1 000 m, rarement jusqu’à 2 000 m[6], du Sud du Mexique, en Amérique centrale, jusqu’au Brésil et en Bolivie[4],[7],[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calliclamys est une liane de la végétation ripicole et de la forêt primaire, rencontrée à faible altitude, de 100 à 1 000 m, rarement jusqu’à 2 000 m, du Sud du Mexique, en Amérique centrale, jusqu’au Brésil et en Bolivie. 
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Wayapi utilisent l’écorce de la tige en remède contre la leishmaniose[5]. Les tribus Andoques (Colombie) se servent de cette plante comme anti-diarrhéique, et les Miraflas en extraient un venin pour la chasse[4].
-Une étude brésilienne récente (2010) a démontré que Calliclamys latifolia et une autre espèce de Bignonieae, Arrabidaea samydoides, avaient une activité antivirale sur trois virus, dont un type responsable de l’herpès humaine[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Wayapi utilisent l’écorce de la tige en remède contre la leishmaniose. Les tribus Andoques (Colombie) se servent de cette plante comme anti-diarrhéique, et les Miraflas en extraient un venin pour la chasse.
+Une étude brésilienne récente (2010) a démontré que Calliclamys latifolia et une autre espèce de Bignonieae, Arrabidaea samydoides, avaient une activité antivirale sur trois virus, dont un type responsable de l’herpès humaine.
 </t>
         </is>
       </c>
